--- a/storage/file/pertanyaann.xlsx
+++ b/storage/file/pertanyaann.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="327">
   <si>
     <t>ip2</t>
   </si>
@@ -383,9 +383,6 @@
   </si>
   <si>
     <t>Berapa kali pengawas melakukan kunjungan supervisi ke sekolah ini dalam 1 bulan</t>
-  </si>
-  <si>
-    <t>Barapa rata-rata lama kunjungan pengawas ke sekolah ini</t>
   </si>
   <si>
     <t>Jumlah siswa per kelas dan buku paket yang tersedia di sekolah ini :</t>
@@ -1001,6 +998,12 @@
   </si>
   <si>
     <t>Apakah kepala sekolah ini memiliki kualifikasi S1/D4 dan sudah bersertifikat pendidik</t>
+  </si>
+  <si>
+    <t>Jumlah Guru yang sudah mengembangkan program penilaian</t>
+  </si>
+  <si>
+    <t>Berapa rata-rata lama kunjungan pengawas ke sekolah ini</t>
   </si>
 </sst>
 </file>
@@ -1925,15 +1928,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="10" customWidth="1"/>
+    <col min="3" max="3" width="68.5703125" style="10" customWidth="1"/>
     <col min="6" max="6" width="12" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
@@ -2292,7 +2295,7 @@
         <v>116</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2370,7 +2373,7 @@
         <v>119</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2422,7 +2425,7 @@
         <v>121</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2435,9 +2438,6 @@
       </c>
       <c r="H19">
         <v>4</v>
-      </c>
-      <c r="I19" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2466,7 +2466,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2477,22 +2477,25 @@
         <v>95</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>123</v>
+        <v>326</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" s="5">
         <v>1</v>
       </c>
       <c r="H21">
         <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2503,13 +2506,13 @@
         <v>33</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="7">
         <v>2</v>
@@ -2529,7 +2532,7 @@
         <v>34</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2555,7 +2558,7 @@
         <v>35</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2581,7 +2584,7 @@
         <v>36</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2607,7 +2610,7 @@
         <v>37</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2633,7 +2636,7 @@
         <v>38</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2662,7 +2665,7 @@
         <v>39</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2691,7 +2694,7 @@
         <v>40</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2720,7 +2723,7 @@
         <v>41</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2749,7 +2752,7 @@
         <v>42</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2778,7 +2781,7 @@
         <v>43</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2807,7 +2810,7 @@
         <v>44</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2836,7 +2839,7 @@
         <v>45</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2865,7 +2868,7 @@
         <v>46</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2894,7 +2897,7 @@
         <v>47</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2923,7 +2926,7 @@
         <v>48</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2952,7 +2955,7 @@
         <v>49</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2981,7 +2984,7 @@
         <v>50</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -3010,7 +3013,7 @@
         <v>51</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -3039,7 +3042,7 @@
         <v>52</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -3068,7 +3071,7 @@
         <v>53</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -3097,7 +3100,7 @@
         <v>54</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -3126,7 +3129,7 @@
         <v>55</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -3155,7 +3158,7 @@
         <v>56</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -3184,7 +3187,7 @@
         <v>57</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -3213,7 +3216,7 @@
         <v>58</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -3242,7 +3245,7 @@
         <v>59</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -3271,7 +3274,7 @@
         <v>60</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -3300,7 +3303,7 @@
         <v>61</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -3329,7 +3332,7 @@
         <v>62</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -3358,7 +3361,7 @@
         <v>63</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -3387,7 +3390,7 @@
         <v>64</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -3416,7 +3419,7 @@
         <v>65</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -3445,7 +3448,7 @@
         <v>66</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -3474,7 +3477,7 @@
         <v>67</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -3503,7 +3506,7 @@
         <v>68</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -3532,13 +3535,13 @@
         <v>69</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" s="7">
         <v>2</v>
@@ -3561,13 +3564,13 @@
         <v>70</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" s="7">
         <v>2</v>
@@ -3590,7 +3593,7 @@
         <v>71</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -3619,7 +3622,7 @@
         <v>72</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -3648,7 +3651,7 @@
         <v>73</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -3677,7 +3680,7 @@
         <v>74</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -3706,7 +3709,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -3735,13 +3738,13 @@
         <v>76</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" s="7">
         <v>2</v>
@@ -3761,13 +3764,13 @@
         <v>77</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" s="7">
         <v>2</v>
@@ -3777,9 +3780,6 @@
       </c>
       <c r="H66">
         <v>1</v>
-      </c>
-      <c r="I66" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3790,13 +3790,13 @@
         <v>78</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="7">
         <v>2</v>
@@ -3806,6 +3806,9 @@
       </c>
       <c r="H67">
         <v>1</v>
+      </c>
+      <c r="I67" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3816,13 +3819,13 @@
         <v>79</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" s="7">
         <v>2</v>
@@ -3832,9 +3835,6 @@
       </c>
       <c r="H68">
         <v>1</v>
-      </c>
-      <c r="I68" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3845,7 +3845,7 @@
         <v>80</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3874,7 +3874,7 @@
         <v>81</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -3932,7 +3932,7 @@
         <v>83</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -3948,6 +3948,9 @@
       </c>
       <c r="H72">
         <v>2</v>
+      </c>
+      <c r="I72" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3958,13 +3961,13 @@
         <v>84</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" s="7">
         <v>2</v>
@@ -3974,9 +3977,6 @@
       </c>
       <c r="H73">
         <v>2</v>
-      </c>
-      <c r="I73" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -3987,7 +3987,7 @@
         <v>85</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>86</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>87</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>88</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>89</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -4132,10 +4132,10 @@
         <v>90</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D79" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -4149,16 +4149,19 @@
       <c r="H79">
         <v>3</v>
       </c>
+      <c r="I79" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="C80" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="D80" s="12">
         <v>0</v>
@@ -4178,13 +4181,13 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="C81" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="D81" s="12">
         <v>0</v>
@@ -4201,19 +4204,16 @@
       <c r="H81">
         <v>3</v>
       </c>
-      <c r="I81" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="D82" s="12">
         <v>0</v>
@@ -4236,19 +4236,19 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C83" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C83" s="5" t="s">
-        <v>190</v>
-      </c>
       <c r="D83" s="5">
         <v>0</v>
       </c>
       <c r="E83" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" s="5">
         <v>2</v>
@@ -4258,23 +4258,26 @@
       </c>
       <c r="H83" s="5">
         <v>0</v>
+      </c>
+      <c r="I83" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="C84" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="C84" s="13" t="s">
-        <v>193</v>
-      </c>
       <c r="D84" s="5">
         <v>0</v>
       </c>
       <c r="E84" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" s="7">
         <v>2</v>
@@ -4288,71 +4291,71 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D85" s="5">
+        <v>0</v>
+      </c>
+      <c r="E85" s="5">
+        <v>1</v>
+      </c>
+      <c r="F85" s="7">
+        <v>2</v>
+      </c>
+      <c r="G85" s="5">
+        <v>1</v>
+      </c>
+      <c r="H85" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D85" s="5">
-        <v>0</v>
-      </c>
-      <c r="E85" s="5">
-        <v>1</v>
-      </c>
-      <c r="F85" s="7">
-        <v>2</v>
-      </c>
-      <c r="G85" s="5">
-        <v>1</v>
-      </c>
-      <c r="H85" s="5">
-        <v>0</v>
-      </c>
-      <c r="I85" t="s">
+      <c r="C86" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D86" s="5">
+        <v>0</v>
+      </c>
+      <c r="E86" s="5">
+        <v>1</v>
+      </c>
+      <c r="F86" s="7">
+        <v>2</v>
+      </c>
+      <c r="G86" s="5">
+        <v>1</v>
+      </c>
+      <c r="H86" s="5">
+        <v>0</v>
+      </c>
+      <c r="I86" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D86" s="5">
-        <v>1</v>
-      </c>
-      <c r="E86" s="5">
-        <v>1</v>
-      </c>
-      <c r="F86" s="7">
-        <v>2</v>
-      </c>
-      <c r="G86" s="5">
-        <v>1</v>
-      </c>
-      <c r="H86" s="5">
-        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="C87" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="D87" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" s="5">
         <v>1</v>
@@ -4365,23 +4368,20 @@
       </c>
       <c r="H87" s="5">
         <v>0</v>
-      </c>
-      <c r="I87" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C88" s="5" t="s">
-        <v>201</v>
-      </c>
       <c r="D88" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" s="5">
         <v>1</v>
@@ -4394,23 +4394,26 @@
       </c>
       <c r="H88" s="5">
         <v>0</v>
+      </c>
+      <c r="I88" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C89" s="5" t="s">
-        <v>203</v>
-      </c>
       <c r="D89" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" s="11">
         <v>2</v>
@@ -4424,19 +4427,19 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="C90" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="C90" s="11" t="s">
-        <v>206</v>
-      </c>
       <c r="D90" s="5">
         <v>0</v>
       </c>
       <c r="E90" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" s="7">
         <v>2</v>
@@ -4450,13 +4453,13 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D91" s="5">
         <v>0</v>
@@ -4472,23 +4475,20 @@
       </c>
       <c r="H91" s="5">
         <v>0</v>
-      </c>
-      <c r="I91" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D92" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" s="5">
         <v>1</v>
@@ -4501,17 +4501,20 @@
       </c>
       <c r="H92" s="5">
         <v>0</v>
+      </c>
+      <c r="I92" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="C93" s="5" t="s">
         <v>210</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>211</v>
       </c>
       <c r="D93" s="5">
         <v>1</v>
@@ -4531,13 +4534,13 @@
     </row>
     <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="C94" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>214</v>
       </c>
       <c r="D94" s="5">
         <v>1</v>
@@ -4557,13 +4560,13 @@
     </row>
     <row r="95" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C95" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="D95" s="5">
         <v>1</v>
@@ -4583,13 +4586,13 @@
     </row>
     <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C96" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>218</v>
       </c>
       <c r="D96" s="5">
         <v>1</v>
@@ -4609,13 +4612,13 @@
     </row>
     <row r="97" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C97" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="D97" s="5">
         <v>1</v>
@@ -4635,13 +4638,13 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="C98" s="14" t="s">
         <v>222</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>223</v>
       </c>
       <c r="D98" s="15">
         <v>1</v>
@@ -4661,13 +4664,13 @@
     </row>
     <row r="99" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C99" s="14" t="s">
         <v>224</v>
-      </c>
-      <c r="C99" s="14" t="s">
-        <v>225</v>
       </c>
       <c r="D99" s="15">
         <v>1</v>
@@ -4687,13 +4690,13 @@
     </row>
     <row r="100" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C100" s="14" t="s">
         <v>226</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>227</v>
       </c>
       <c r="D100" s="14">
         <v>0</v>
@@ -4713,13 +4716,13 @@
     </row>
     <row r="101" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C101" s="14" t="s">
         <v>228</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>229</v>
       </c>
       <c r="D101" s="14">
         <v>0</v>
@@ -4739,13 +4742,13 @@
     </row>
     <row r="102" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C102" s="14" t="s">
         <v>230</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>231</v>
       </c>
       <c r="D102" s="14">
         <v>0</v>
@@ -4765,13 +4768,13 @@
     </row>
     <row r="103" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C103" s="14" t="s">
         <v>232</v>
-      </c>
-      <c r="C103" s="14" t="s">
-        <v>233</v>
       </c>
       <c r="D103" s="14">
         <v>0</v>
@@ -4791,13 +4794,13 @@
     </row>
     <row r="104" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C104" s="14" t="s">
         <v>234</v>
-      </c>
-      <c r="C104" s="14" t="s">
-        <v>235</v>
       </c>
       <c r="D104" s="14">
         <v>0</v>
@@ -4817,13 +4820,13 @@
     </row>
     <row r="105" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C105" s="14" t="s">
         <v>236</v>
-      </c>
-      <c r="C105" s="14" t="s">
-        <v>237</v>
       </c>
       <c r="D105" s="14">
         <v>0</v>
@@ -4843,13 +4846,13 @@
     </row>
     <row r="106" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C106" s="14" t="s">
         <v>238</v>
-      </c>
-      <c r="C106" s="14" t="s">
-        <v>239</v>
       </c>
       <c r="D106" s="14">
         <v>0</v>
@@ -4869,13 +4872,13 @@
     </row>
     <row r="107" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C107" s="14" t="s">
         <v>240</v>
-      </c>
-      <c r="C107" s="14" t="s">
-        <v>241</v>
       </c>
       <c r="D107" s="14">
         <v>0</v>
@@ -4895,13 +4898,13 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C108" s="14" t="s">
         <v>242</v>
-      </c>
-      <c r="C108" s="14" t="s">
-        <v>243</v>
       </c>
       <c r="D108" s="14">
         <v>0</v>
@@ -4921,13 +4924,13 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C109" s="14" t="s">
         <v>244</v>
-      </c>
-      <c r="C109" s="14" t="s">
-        <v>245</v>
       </c>
       <c r="D109" s="14">
         <v>0</v>
@@ -4947,13 +4950,13 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C110" s="14" t="s">
         <v>246</v>
-      </c>
-      <c r="C110" s="14" t="s">
-        <v>247</v>
       </c>
       <c r="D110" s="14">
         <v>0</v>
@@ -4973,13 +4976,13 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C111" s="14" t="s">
         <v>248</v>
-      </c>
-      <c r="C111" s="14" t="s">
-        <v>249</v>
       </c>
       <c r="D111" s="14">
         <v>0</v>
@@ -4999,13 +5002,13 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C112" s="14" t="s">
         <v>250</v>
-      </c>
-      <c r="C112" s="14" t="s">
-        <v>251</v>
       </c>
       <c r="D112" s="14">
         <v>0</v>
@@ -5025,13 +5028,13 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C113" s="14" t="s">
         <v>252</v>
-      </c>
-      <c r="C113" s="14" t="s">
-        <v>253</v>
       </c>
       <c r="D113" s="14">
         <v>0</v>
@@ -5051,13 +5054,13 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C114" s="14" t="s">
         <v>254</v>
-      </c>
-      <c r="C114" s="14" t="s">
-        <v>255</v>
       </c>
       <c r="D114" s="14">
         <v>0</v>
@@ -5077,13 +5080,13 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C115" s="14" t="s">
         <v>256</v>
-      </c>
-      <c r="C115" s="14" t="s">
-        <v>257</v>
       </c>
       <c r="D115" s="14">
         <v>0</v>
@@ -5103,13 +5106,13 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C116" s="14" t="s">
         <v>258</v>
-      </c>
-      <c r="C116" s="14" t="s">
-        <v>259</v>
       </c>
       <c r="D116" s="14">
         <v>0</v>
@@ -5129,13 +5132,13 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C117" s="14" t="s">
         <v>260</v>
-      </c>
-      <c r="C117" s="14" t="s">
-        <v>261</v>
       </c>
       <c r="D117" s="14">
         <v>0</v>
@@ -5155,13 +5158,13 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C118" s="14" t="s">
         <v>262</v>
-      </c>
-      <c r="C118" s="14" t="s">
-        <v>263</v>
       </c>
       <c r="D118" s="14">
         <v>0</v>
@@ -5181,13 +5184,13 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C119" s="14" t="s">
         <v>264</v>
-      </c>
-      <c r="C119" s="14" t="s">
-        <v>265</v>
       </c>
       <c r="D119" s="14">
         <v>0</v>
@@ -5207,13 +5210,13 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C120" s="14" t="s">
         <v>266</v>
-      </c>
-      <c r="C120" s="14" t="s">
-        <v>267</v>
       </c>
       <c r="D120" s="14">
         <v>0</v>
@@ -5233,13 +5236,13 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C121" s="14" t="s">
         <v>268</v>
-      </c>
-      <c r="C121" s="14" t="s">
-        <v>269</v>
       </c>
       <c r="D121" s="14">
         <v>0</v>
@@ -5259,13 +5262,13 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C122" s="14" t="s">
         <v>270</v>
-      </c>
-      <c r="C122" s="14" t="s">
-        <v>271</v>
       </c>
       <c r="D122" s="14">
         <v>0</v>
@@ -5285,13 +5288,13 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C123" s="14" t="s">
         <v>272</v>
-      </c>
-      <c r="C123" s="14" t="s">
-        <v>273</v>
       </c>
       <c r="D123" s="14">
         <v>0</v>
@@ -5311,13 +5314,13 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C124" s="14" t="s">
         <v>274</v>
-      </c>
-      <c r="C124" s="14" t="s">
-        <v>275</v>
       </c>
       <c r="D124" s="14">
         <v>0</v>
@@ -5337,13 +5340,13 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C125" s="14" t="s">
         <v>276</v>
-      </c>
-      <c r="C125" s="14" t="s">
-        <v>277</v>
       </c>
       <c r="D125" s="14">
         <v>0</v>
@@ -5363,13 +5366,13 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C126" s="14" t="s">
         <v>278</v>
-      </c>
-      <c r="C126" s="14" t="s">
-        <v>279</v>
       </c>
       <c r="D126" s="14">
         <v>0</v>
@@ -5389,13 +5392,13 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C127" s="14" t="s">
         <v>280</v>
-      </c>
-      <c r="C127" s="14" t="s">
-        <v>281</v>
       </c>
       <c r="D127" s="14">
         <v>0</v>
@@ -5415,13 +5418,13 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C128" s="14" t="s">
         <v>282</v>
-      </c>
-      <c r="C128" s="14" t="s">
-        <v>283</v>
       </c>
       <c r="D128" s="14">
         <v>0</v>
@@ -5441,13 +5444,13 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C129" s="14" t="s">
         <v>284</v>
-      </c>
-      <c r="C129" s="14" t="s">
-        <v>285</v>
       </c>
       <c r="D129" s="14">
         <v>0</v>
@@ -5467,13 +5470,13 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C130" s="14" t="s">
         <v>286</v>
-      </c>
-      <c r="C130" s="14" t="s">
-        <v>287</v>
       </c>
       <c r="D130" s="14">
         <v>0</v>
@@ -5493,13 +5496,13 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C131" s="14" t="s">
         <v>288</v>
-      </c>
-      <c r="C131" s="14" t="s">
-        <v>289</v>
       </c>
       <c r="D131" s="14">
         <v>0</v>
@@ -5519,13 +5522,13 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C132" s="14" t="s">
         <v>290</v>
-      </c>
-      <c r="C132" s="14" t="s">
-        <v>291</v>
       </c>
       <c r="D132" s="14">
         <v>0</v>
@@ -5545,13 +5548,13 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C133" s="14" t="s">
         <v>292</v>
-      </c>
-      <c r="C133" s="14" t="s">
-        <v>293</v>
       </c>
       <c r="D133" s="14">
         <v>0</v>
@@ -5571,13 +5574,13 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C134" s="14" t="s">
         <v>294</v>
-      </c>
-      <c r="C134" s="14" t="s">
-        <v>295</v>
       </c>
       <c r="D134" s="14">
         <v>0</v>
@@ -5597,13 +5600,13 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C135" s="14" t="s">
         <v>296</v>
-      </c>
-      <c r="C135" s="14" t="s">
-        <v>297</v>
       </c>
       <c r="D135" s="14">
         <v>0</v>
@@ -5623,13 +5626,13 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C136" s="14" t="s">
         <v>298</v>
-      </c>
-      <c r="C136" s="14" t="s">
-        <v>299</v>
       </c>
       <c r="D136" s="14">
         <v>0</v>
@@ -5649,13 +5652,13 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C137" s="14" t="s">
         <v>300</v>
-      </c>
-      <c r="C137" s="14" t="s">
-        <v>301</v>
       </c>
       <c r="D137" s="14">
         <v>0</v>
@@ -5675,13 +5678,13 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C138" s="14" t="s">
         <v>302</v>
-      </c>
-      <c r="C138" s="14" t="s">
-        <v>303</v>
       </c>
       <c r="D138" s="14">
         <v>0</v>
@@ -5701,13 +5704,13 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C139" s="14" t="s">
         <v>304</v>
-      </c>
-      <c r="C139" s="14" t="s">
-        <v>305</v>
       </c>
       <c r="D139" s="14">
         <v>0</v>
@@ -5727,13 +5730,13 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C140" s="14" t="s">
         <v>306</v>
-      </c>
-      <c r="C140" s="14" t="s">
-        <v>307</v>
       </c>
       <c r="D140" s="14">
         <v>0</v>
@@ -5753,13 +5756,13 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C141" s="14" t="s">
         <v>308</v>
-      </c>
-      <c r="C141" s="14" t="s">
-        <v>309</v>
       </c>
       <c r="D141" s="14">
         <v>0</v>
@@ -5779,13 +5782,13 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="C142" s="5" t="s">
         <v>311</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>312</v>
       </c>
       <c r="D142" s="5">
         <v>1</v>
@@ -5805,13 +5808,13 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="C143" s="14" t="s">
         <v>314</v>
-      </c>
-      <c r="C143" s="14" t="s">
-        <v>315</v>
       </c>
       <c r="D143" s="14">
         <v>0</v>
@@ -5831,13 +5834,13 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C144" s="14" t="s">
         <v>316</v>
-      </c>
-      <c r="C144" s="14" t="s">
-        <v>317</v>
       </c>
       <c r="D144" s="14">
         <v>0</v>
@@ -5857,13 +5860,13 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C145" s="14" t="s">
         <v>318</v>
-      </c>
-      <c r="C145" s="14" t="s">
-        <v>319</v>
       </c>
       <c r="D145" s="14">
         <v>0</v>
@@ -5883,13 +5886,13 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="C146" s="14" t="s">
         <v>321</v>
-      </c>
-      <c r="C146" s="14" t="s">
-        <v>322</v>
       </c>
       <c r="D146" s="14">
         <v>1</v>
@@ -5909,13 +5912,13 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="C147" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="D147" s="14">
         <v>1</v>
